--- a/Test_ExcelData/Read_data.xlsx
+++ b/Test_ExcelData/Read_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C0F7498-736A-48FA-B4B6-A407FA1BD932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{06763342-F914-4FA4-A802-92560597B0E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14020" windowHeight="5500" xr2:uid="{13831E28-3985-40EA-ACDD-5A627AA95155}"/>
   </bookViews>
@@ -23,13 +23,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>vinaykumar@gmail.com</t>
-  </si>
-  <si>
     <t>yadamakanti@gmail.com</t>
   </si>
   <si>
     <t>vinay@gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj.velicheti@honeywell.com</t>
   </si>
 </sst>
 </file>
@@ -404,25 +404,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
     <col min="2" max="2" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
